--- a/merging/InJOIN.xlsx
+++ b/merging/InJOIN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,451 +442,451 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>'_ABC_Classes'[_ABC_SalesAmount]</t>
+          <t>'Agreements'[PaymentType]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>'_ABC_Classes'[_ABC_StocksAmount]</t>
+          <t>'BUs'[BU]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>'_ABC_Classes'[_ABC_StocksRotation]</t>
+          <t>'BUsдляСвітлофора'[BU_дляСвітлофора]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>'Credits'[Кредиторка загальна]</t>
+          <t>'Brands'[Name]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>'Debts'[DateDocMonth]</t>
+          <t>'Brands'[ParentName]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>'Debts'[DateDocMonth]</t>
+          <t>'Buffer'[Buffer]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>'Debts'[DateDocYear]</t>
+          <t>'Buffer'[Date]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>'Debts'[DateDocYear]</t>
+          <t>'Business_Units'[Name]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>'Debts'[Дебіторка загальна]</t>
+          <t>'ColoredStatistic'[Name]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>'DimDates'[WorkDays]</t>
+          <t>'ColoredStatisticParameter'[ColoredStatisticParameter]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>'DimDates'[К-сть робочих днів у періоді пройшло]</t>
+          <t>'Contractors'[Name]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>'DimDates'[Період]</t>
+          <t>'Contractors'[Parent]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>'DimDates'[Період]</t>
+          <t>'Contractors'[Вид напрямку продаж]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>'Projects'[ContractNon]</t>
+          <t>'Contractors'[Вид напрямку продаж]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>'Projects'[ContractNon]</t>
+          <t>'Debts'[% Overdue Debt]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>'Sales'[Ф1/Ф2]</t>
+          <t>'Debts'[% дебіторки від обороту]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>'Sales'[Ф1/Ф2]</t>
+          <t>'Debts'[DateOfpayment]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>'SalesDet'[% виконання плану продажу]</t>
+          <t>'Debts'[Date]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>'SalesDet'[% виконання плану продажу на основі прогнозу місяця]</t>
+          <t>'Debts'[DaysExpedited]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>'SalesDet'[% знижки]</t>
+          <t>'Debts'[DaysOfDelayCurrent]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>'SalesDet'[% маржі]</t>
+          <t>'Debts'[Debt]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>'SalesDet'[% націнки]</t>
+          <t>'Debts'[DocDate]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>'SalesDet'[Period]</t>
+          <t>'Debts'[DocNumber]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>'SalesDet'[Покриття АТТ]</t>
+          <t>'Debts'[Max дні_протермінування]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>'SalesDet'[Прогноз продажу в поточному місяці]</t>
+          <t>'Debts'[Overdue Days (period)]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>'Stocks'[DateNormal]</t>
+          <t>'Debts'[Overdue Days (period)]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>'Stocks'[DateNormal]</t>
+          <t>'Debts'[Сер. дні відтермінування]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>'Stocks'[Залишки на кін періоду]</t>
+          <t>'Debts'[Сума безнадійної ДЗ]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>'Stocks'[Залишки на поч періоду]</t>
+          <t>'Debts'[Сума критичної ДЗ]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>'Stocks'[Кількість SKU]</t>
+          <t>'Debts'[Частка безнадійної ДЗ]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>'Stocks'[К-ть залишків]</t>
+          <t>'Debts'[Частка критичної ДЗ]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>'Stocks'[Середньоденна сума залишків]</t>
+          <t>'Debts'[Частка протермінованої ДЗ]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>'Teritories'[Територія]</t>
+          <t>'DeliveryAddresses'[Name]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>'Teritories'[Територія]</t>
+          <t>'DeliveryAddresses'[adCanal]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>'Warehouses'[Типи Складів (для закупки+залишки)]</t>
+          <t>'DimDates'[DateNormal]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>'Warehouses'[Типи Складів (для закупки+залишки)]</t>
+          <t>'DimDates'[DayName]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>'ZakupkiDet'[% виконання плану закупки]</t>
+          <t>'DimDates'[DayNumberOfWeek]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>'ZakupkiDet'[Середньоденна закупка]</t>
+          <t>'DimDates'[DayShortName]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>'_ABC_Classes'[ABC]</t>
+          <t>'DimDates'[FerreroPeriodYear]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>'Agents'[Торгові представники]</t>
+          <t>'DimDates'[FerreroPeriodYear]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>'BrandsBI'[назва бренда]</t>
+          <t>'DimDates'[FerreroPeriod]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>'BrandsBI'[Посилання]</t>
+          <t>'DimDates'[FerreroPeriod]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>'Clients'[Клієнти]</t>
+          <t>'DimDates'[MarsPeriodYear]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>'Comands'[Команди]</t>
+          <t>'DimDates'[MarsPeriod]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>'Debts'[Action]</t>
+          <t>'DimDates'[MonthName]</t>
         </is>
       </c>
     </row>
@@ -896,247 +896,1327 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>'Debts'[Дебіторка]</t>
+          <t>'DimDates'[OffsetDateName]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>'DeliveryAddresses'[Адреси доставки]</t>
+          <t>'DimDates'[Quarter]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>'DeliveryAddresses'[Вид ТТ]</t>
+          <t>'DimDates'[WorkDays]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>'DeliveryAddresses'[Канал збуту]</t>
+          <t>'DimDates'[YearNumber]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>'DimDates'[Date]</t>
+          <t>'DimPaymentType'[PaymentType]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>'DimDates'[DateNormal]</t>
+          <t>'GroupProducts'[Name]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>'DimDates'[Місяць]</t>
+          <t>'MainSupplier'[MainSupplierName]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>'DimDates'[Рік]</t>
+          <t>'Operational_Planning'[PlanSum]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>'History'[Контракт]</t>
+          <t>'Operational_Planning'[Обертовість дебіторки в днях]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>'Organizations'[Організації]</t>
+          <t>'Operational_Planning'[Середні продажі за останні 30 календарних днів]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>'ProductGroup'[Група товару]</t>
+          <t>'Organizations'[Name]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>'Products'[Category1]</t>
+          <t>'Procurement_planning'[Sum]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>'Products'[Category2]</t>
+          <t>'Procurement_planning'[ПроцентВиконанняПлану]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>'Products'[Category3]</t>
+          <t>'ProductsExtended'[Active]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>'Products'[Артикул]</t>
+          <t>'ProductsExtended'[BU]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>'Products'[Товари]</t>
+          <t>'ProductsExtended'[BU]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>'Projects'[Бренди]</t>
+          <t>'ProductsExtended'[Code]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>'Projects'[Контракт]</t>
+          <t>'ProductsExtended'[Delisting]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>'Sales'[AgentCode]</t>
+          <t>'ProductsExtended'[Equipment]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>'SalesDet'[count]</t>
+          <t>'ProductsExtended'[Focus]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>'SalesDet'[Margin]</t>
+          <t>'ProductsExtended'[FullName]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>'Stocks'[Count]</t>
+          <t>'ProductsExtended'[Group]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>'Teritories'[Підрозділи]</t>
+          <t>'ProductsExtended'[Group]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>'Warehouses'[Склади]</t>
+          <t>'ProductsExtended'[MainSupplierName]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>'ProductsExtended'[Name]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>'ProductsExtended'[New]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>'ProductsExtended'[Nomenclature Group]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>'ProductsExtended'[Nomenclature Group]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>'ProductsExtended'[ParentCode]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>'ProductsExtended'[ParentName]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>'ProductsExtended'[Present]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>'ProductsExtended'[ProductBrandName]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>'ProductsExtended'[ProductCategory]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>'ProductsExtended'[ProductGroup]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>'ProductsExtended'[Promotional]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>'ProductsExtended'[Quotated]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>'ProductsExtended'[ReportUnitVolume]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>'ProductsExtended'[ReportUnitWeight]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>'ProductsExtended'[Seasonal]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>'ProductsExtended'[StorageUnitWeight]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>'ProductsExtended'[StorageUnit]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>'ProductsExtended'[Tester]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>'ProductsExtended'[для звіту Власного імпорту]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>'ProductsExtended'[для звіту Власного імпорту]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>'ReceiptsFromSuppliers'[Contractor]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>'ReceiptsFromSuppliers'[Date]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>'ReceiptsFromSuppliers'[Department]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>'ReceiptsFromSuppliers'[IncomingNumber]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>'ReceiptsFromSuppliers'[InvoiceNumber]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>'ReceiptsFromSuppliers'[Number]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>'ReceiptsFromSuppliers'[OrderToSuppliersNumber]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>'Zakupki'[ТипПриходу]</t>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>'ReceiptsFromSuppliers'[Organization]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>'ReceiptsFromSuppliers'[Price]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>'ReceiptsFromSuppliers'[Product]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>'ReceiptsFromSuppliers'[Quantity]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>'ReceiptsFromSuppliers'[Sum]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>'ReceiptsFromSuppliers'[Середньоденна закупка]</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>'ReturnedFunds'[Sum]</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>'ReturnedFunds'[Повернуті кошти]</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>'ReturnedFunds'[Повернуті кошти]</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>'Sales'[% Execution]</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>'Sales'[Base Value]</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>'Sales'[BaseSum]</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>'Sales'[Calculated Column 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>'Sales'[Calculated Column 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>'Sales'[Contractors]</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>'Sales'[Net Sales Value Forecasted in Month]</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>'Sales'[Net Sales Value Forecasted in Year]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>'Sales'[Number of days]</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>'Sales'[Period]</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>'Sales'[PoS/Contractors]</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>'Sales'[Point of Sales]</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>'Sales'[SKU]</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>'Sales'[SalesPersonCode]</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>'Sales'[Stocks in days]</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>'Sales'[Sum]</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>'Sales'[Volume]</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>'Sales'[Weight]</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>'Sales'[networkdaysInMonth]</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>'Sales'[Буфер]</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>'Sales'[Середня к-сть SKU в накладній]</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>'Sales'[Старий буфер]</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>'SalesPersonesExtended'[Mix/Eta_Ferrero]</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>'SalesPersonesExtended'[Mix/Eta_Ferrero]</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>'SalesPersonesExtended'[Name]</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>'SalesPersonesExtended'[Parent1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>'SalesPersonesExtended'[Parent2]</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>'Sheet1'[Image]</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>'Stocks'[BaseSum]</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>'Stocks'[Date]</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>'Stocks'[ProductCode]</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>'Stocks'[count]</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>'Stocks'[Залишки на кінець періоду]</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>'Stocks'[Залишки на поч періоду]</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>'Stocks'[К-ть залишків]</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>'Stocks'[Кількість SKU]</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>'Stocks'[Кількість унікальних SKU]</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>'Stocks'[Середньоденна сума залишків]</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>'Territories'[Name]</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>'Territories'[Name_Region]</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>'Territories'[Name_Region]</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>'TypeOfAdress'[Canal]</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>'TypeOfAdress'[Name]</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>'Type_Of_Price'[Name]</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>'WarehouseSegment'[Name]</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>'Warehouses'[Characteristic]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>'Warehouses'[Code]</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>'Warehouses'[Name]</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>'_ABC_Classes'[ABC]</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>'_ABC_Classes'[_ABC_Percent_Stocks]</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>'_ABC_Classes'[_ABC_SalesAmount]</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>'_ABC_Classes'[_ABC_StockSum]</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>'_ABC_Classes'[_ABC_Stock_Amount]</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>'_ABC_Classes'[_ABC_Stock_Rotation]</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>'_ABC_Classes'[_ABC_Кількість_SKU]</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>'_ABC_Classes'[_ABC_Кількість_унікальних_SKU]</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>'Анкета'[Вопрос]</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>'Анкета'[Відповідь]</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>'Анкета'[Відповідь]</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>'Анкета'[Дата]</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>'Анкета'[Загальна кількість опрацьованих унікальних ТТ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>'Анкета'[К-сть ТА]</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>'Анкета'[К-сть відповідей]</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>'Анкета'[Название ТТ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>'Анкета'[Область]</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>'Анкета'[Торговий представник]</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>'Анкета'[Фактический Адрес ТТ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>'ОпераційнийПлан'[WorkDaysPassed]</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>'ОпераційнийПлан'[WorkDaysRemains]</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>'ТаблицяПараметрівДеннийЗвіт'[% виконання bu]</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>'ТаблицяПараметрівДеннийЗвіт'[% виконання денного плану продаж]</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>'ТаблицяПараметрівДеннийЗвіт'[% виконання територія]</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>'ТаблицяПараметрівДеннийЗвіт'[Параметр]</t>
         </is>
       </c>
     </row>
